--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H2">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I2">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J2">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>89.64333994461501</v>
+        <v>4.236822918032</v>
       </c>
       <c r="R2">
-        <v>537.86003966769</v>
+        <v>16.947291672128</v>
       </c>
       <c r="S2">
-        <v>0.002522185629163003</v>
+        <v>4.478272117197399E-05</v>
       </c>
       <c r="T2">
-        <v>0.001792834135100736</v>
+        <v>2.066567967237283E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H3">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I3">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J3">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>528.9918311538739</v>
+        <v>14.2211640792045</v>
       </c>
       <c r="R3">
-        <v>4760.926480384865</v>
+        <v>85.32698447522701</v>
       </c>
       <c r="S3">
-        <v>0.01488359977780001</v>
+        <v>0.0001503160358648479</v>
       </c>
       <c r="T3">
-        <v>0.01586946580752229</v>
+        <v>0.0001040484912096374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H4">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I4">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J4">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>1098.778399188055</v>
+        <v>45.10035015796218</v>
       </c>
       <c r="R4">
-        <v>9889.005592692496</v>
+        <v>270.602100947773</v>
       </c>
       <c r="S4">
-        <v>0.03091499145144602</v>
+        <v>0.0004767054099161098</v>
       </c>
       <c r="T4">
-        <v>0.03296275142458072</v>
+        <v>0.0003299746322331152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H5">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I5">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J5">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>404.628007447711</v>
+        <v>14.918263092803</v>
       </c>
       <c r="R5">
-        <v>2427.768044686266</v>
+        <v>59.673052371212</v>
       </c>
       <c r="S5">
-        <v>0.01138452612510878</v>
+        <v>0.0001576842906536839</v>
       </c>
       <c r="T5">
-        <v>0.008092412712625938</v>
+        <v>7.276585599835548E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H6">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I6">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J6">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>83.01338447071089</v>
+        <v>82.78026633212366</v>
       </c>
       <c r="R6">
-        <v>747.120460236398</v>
+        <v>496.681597992742</v>
       </c>
       <c r="S6">
-        <v>0.002335646635540018</v>
+        <v>0.0008749777032020012</v>
       </c>
       <c r="T6">
-        <v>0.002490356162118971</v>
+        <v>0.0006056580013997847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H7">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I7">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J7">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>692.0759016764607</v>
+        <v>23.26441676783833</v>
       </c>
       <c r="R7">
-        <v>6228.683115088145</v>
+        <v>139.58650060703</v>
       </c>
       <c r="S7">
-        <v>0.01947209792246539</v>
+        <v>0.0002459021558131667</v>
       </c>
       <c r="T7">
-        <v>0.02076189878756376</v>
+        <v>0.0001702130324974895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H8">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I8">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J8">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>440.6871454404051</v>
+        <v>157.5992444220373</v>
       </c>
       <c r="R8">
-        <v>2644.122872642431</v>
+        <v>945.5954665322239</v>
       </c>
       <c r="S8">
-        <v>0.01239907823462824</v>
+        <v>0.001665805523716384</v>
       </c>
       <c r="T8">
-        <v>0.008813582333431585</v>
+        <v>0.001153067604491707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H9">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I9">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J9">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>2600.526711482678</v>
+        <v>528.991831153874</v>
       </c>
       <c r="R9">
-        <v>23404.7404033441</v>
+        <v>4760.926480384866</v>
       </c>
       <c r="S9">
-        <v>0.07316785724414702</v>
+        <v>0.005591381593030969</v>
       </c>
       <c r="T9">
-        <v>0.07801437999411821</v>
+        <v>0.005805516509116463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H10">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I10">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J10">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>5401.60057076108</v>
+        <v>1677.620529716571</v>
       </c>
       <c r="R10">
-        <v>48614.40513684972</v>
+        <v>15098.58476744913</v>
       </c>
       <c r="S10">
-        <v>0.1519782656745006</v>
+        <v>0.01773225217767033</v>
       </c>
       <c r="T10">
-        <v>0.1620450648105591</v>
+        <v>0.01841134986916126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H11">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I11">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J11">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>1989.153479528317</v>
+        <v>554.9221756492493</v>
       </c>
       <c r="R11">
-        <v>11934.9208771699</v>
+        <v>3329.533053895496</v>
       </c>
       <c r="S11">
-        <v>0.05596639218669901</v>
+        <v>0.005865462292152805</v>
       </c>
       <c r="T11">
-        <v>0.03978234479277674</v>
+        <v>0.004060062509193941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H12">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I12">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J12">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>408.094248366323</v>
+        <v>3079.219424411915</v>
       </c>
       <c r="R12">
-        <v>3672.848235296907</v>
+        <v>27712.97481970723</v>
       </c>
       <c r="S12">
-        <v>0.01148205153009192</v>
+        <v>0.032546988056517</v>
       </c>
       <c r="T12">
-        <v>0.01224260440197999</v>
+        <v>0.03379345039151565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H13">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I13">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J13">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>3402.248886825585</v>
+        <v>865.3782741134156</v>
       </c>
       <c r="R13">
-        <v>30620.23998143027</v>
+        <v>7788.40446702074</v>
       </c>
       <c r="S13">
-        <v>0.09572493901375205</v>
+        <v>0.009146946829655641</v>
       </c>
       <c r="T13">
-        <v>0.1020656070631347</v>
+        <v>0.009497250356470562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H14">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I14">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J14">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>18.380723604495</v>
+        <v>526.8475755792213</v>
       </c>
       <c r="R14">
-        <v>73.52289441798</v>
+        <v>3161.085453475328</v>
       </c>
       <c r="S14">
-        <v>0.0005171560648846547</v>
+        <v>0.00556871706317478</v>
       </c>
       <c r="T14">
-        <v>0.0002450718497425495</v>
+        <v>0.003854655992376381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H15">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I15">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J15">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>108.465979106562</v>
+        <v>1768.397207529128</v>
       </c>
       <c r="R15">
-        <v>650.7958746393718</v>
+        <v>15915.57486776215</v>
       </c>
       <c r="S15">
-        <v>0.003051775334617025</v>
+        <v>0.01869175101206726</v>
       </c>
       <c r="T15">
-        <v>0.00216928005984062</v>
+        <v>0.01940759493505199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H16">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I16">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J16">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>225.2966262808053</v>
+        <v>5608.214126053984</v>
       </c>
       <c r="R16">
-        <v>1351.779757684832</v>
+        <v>50473.92713448586</v>
       </c>
       <c r="S16">
-        <v>0.006338897161299821</v>
+        <v>0.05927816534670295</v>
       </c>
       <c r="T16">
-        <v>0.004505850433158981</v>
+        <v>0.06154836006531047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H17">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I17">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J17">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>82.966069449543</v>
+        <v>1855.081247046086</v>
       </c>
       <c r="R17">
-        <v>331.864277798172</v>
+        <v>11130.48748227651</v>
       </c>
       <c r="S17">
-        <v>0.002334315390335334</v>
+        <v>0.01960799113983531</v>
       </c>
       <c r="T17">
-        <v>0.001106194105486467</v>
+        <v>0.01357261640126121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H18">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I18">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J18">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>17.02129880895266</v>
+        <v>10293.69965812487</v>
       </c>
       <c r="R18">
-        <v>102.127792853716</v>
+        <v>92643.29692312379</v>
       </c>
       <c r="S18">
-        <v>0.0004789075827847784</v>
+        <v>0.1088031977111695</v>
       </c>
       <c r="T18">
-        <v>0.000340419774043381</v>
+        <v>0.1129700683180252</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H19">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I19">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J19">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>141.905197529522</v>
+        <v>2892.922788732809</v>
       </c>
       <c r="R19">
-        <v>851.4311851771319</v>
+        <v>26036.30509859528</v>
       </c>
       <c r="S19">
-        <v>0.003992613953625874</v>
+        <v>0.03057785447404255</v>
       </c>
       <c r="T19">
-        <v>0.002838052243884767</v>
+        <v>0.03174890427504962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H20">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I20">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J20">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>1.644451857845</v>
+        <v>11.164699277088</v>
       </c>
       <c r="R20">
-        <v>9.866711147070001</v>
+        <v>44.658797108352</v>
       </c>
       <c r="S20">
-        <v>4.626794189361541E-05</v>
+        <v>0.0001180095614963805</v>
       </c>
       <c r="T20">
-        <v>3.288843795976215E-05</v>
+        <v>5.445733828447215E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H21">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I21">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J21">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>9.704029324022001</v>
+        <v>37.475019226953</v>
       </c>
       <c r="R21">
-        <v>87.33626391619799</v>
+        <v>224.850115361718</v>
       </c>
       <c r="S21">
-        <v>0.0002730304707649943</v>
+        <v>0.0003961065565927731</v>
       </c>
       <c r="T21">
-        <v>0.000291115575862202</v>
+        <v>0.0002741842501007642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H22">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I22">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J22">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>20.15641296967645</v>
+        <v>118.846564170047</v>
       </c>
       <c r="R22">
-        <v>181.407716727088</v>
+        <v>713.0793850202821</v>
       </c>
       <c r="S22">
-        <v>0.0005671164769072911</v>
+        <v>0.001256194239986438</v>
       </c>
       <c r="T22">
-        <v>0.0006046813723509739</v>
+        <v>0.0008695354064176196</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H23">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I23">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J23">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>7.422651576733001</v>
+        <v>39.311985511302</v>
       </c>
       <c r="R23">
-        <v>44.535909460398</v>
+        <v>157.247942045208</v>
       </c>
       <c r="S23">
-        <v>0.0002088421197680363</v>
+        <v>0.00041552307470218</v>
       </c>
       <c r="T23">
-        <v>0.0001484503269060272</v>
+        <v>0.000191749552808521</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H24">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I24">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J24">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>1.522829408221556</v>
+        <v>218.139109789538</v>
       </c>
       <c r="R24">
-        <v>13.705464673994</v>
+        <v>1308.834658737228</v>
       </c>
       <c r="S24">
-        <v>4.284599894935009E-05</v>
+        <v>0.002305704798005843</v>
       </c>
       <c r="T24">
-        <v>4.568404992520914E-05</v>
+        <v>0.001596004737798123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H25">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I25">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J25">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>12.69570615044867</v>
+        <v>61.30542203317</v>
       </c>
       <c r="R25">
-        <v>114.261355354038</v>
+        <v>367.83253219902</v>
       </c>
       <c r="S25">
-        <v>0.000357203643065081</v>
+        <v>0.0006479911184291104</v>
       </c>
       <c r="T25">
-        <v>0.000380864245516658</v>
+        <v>0.0004485382933489232</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H26">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I26">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J26">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>549.38656016272</v>
+        <v>505.7007315929065</v>
       </c>
       <c r="R26">
-        <v>3296.31936097632</v>
+        <v>3034.20438955744</v>
       </c>
       <c r="S26">
-        <v>0.01545742146325446</v>
+        <v>0.005345197403224901</v>
       </c>
       <c r="T26">
-        <v>0.01098753102052917</v>
+        <v>0.003699936083487971</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H27">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I27">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J27">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>3241.969817851072</v>
+        <v>1697.416488272065</v>
       </c>
       <c r="R27">
-        <v>29177.72836065965</v>
+        <v>15276.74839444858</v>
       </c>
       <c r="S27">
-        <v>0.09121536178611968</v>
+        <v>0.01794149313710473</v>
       </c>
       <c r="T27">
-        <v>0.0972573225964268</v>
+        <v>0.01862860419605139</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H28">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I28">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J28">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>6733.953526095588</v>
+        <v>5383.109115301824</v>
       </c>
       <c r="R28">
-        <v>60605.5817348603</v>
+        <v>48447.98203771641</v>
       </c>
       <c r="S28">
-        <v>0.1894650603320151</v>
+        <v>0.05689883179277412</v>
       </c>
       <c r="T28">
-        <v>0.2020149252564418</v>
+        <v>0.0590779044188482</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H29">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I29">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J29">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>2479.795925659808</v>
+        <v>1780.621164981377</v>
       </c>
       <c r="R29">
-        <v>14878.77555395885</v>
+        <v>10683.72698988826</v>
       </c>
       <c r="S29">
-        <v>0.06977100195977079</v>
+        <v>0.01882095680820102</v>
       </c>
       <c r="T29">
-        <v>0.04959501493756759</v>
+        <v>0.01302783264438804</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H30">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I30">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J30">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>508.7543343432605</v>
+        <v>9880.526530255711</v>
       </c>
       <c r="R30">
-        <v>4578.789009089344</v>
+        <v>88924.7387723014</v>
       </c>
       <c r="S30">
-        <v>0.01431420194347682</v>
+        <v>0.1044360062238011</v>
       </c>
       <c r="T30">
-        <v>0.01526235196426059</v>
+        <v>0.108435625111718</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.69678833333333</v>
+      </c>
+      <c r="H31">
+        <v>44.090365</v>
+      </c>
+      <c r="I31">
+        <v>0.2327929922191316</v>
+      </c>
+      <c r="J31">
+        <v>0.23334445498805</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N31">
+        <v>566.81881</v>
+      </c>
+      <c r="O31">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P31">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q31">
+        <v>2776.805357973961</v>
+      </c>
+      <c r="R31">
+        <v>24991.24822176565</v>
+      </c>
+      <c r="S31">
+        <v>0.02935050685402569</v>
+      </c>
+      <c r="T31">
+        <v>0.0304745525335563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H32">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J32">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>34.408928</v>
+      </c>
+      <c r="N32">
+        <v>68.81785599999999</v>
+      </c>
+      <c r="O32">
+        <v>0.02296116112547488</v>
+      </c>
+      <c r="P32">
+        <v>0.01585611315973826</v>
+      </c>
+      <c r="Q32">
+        <v>966.7703193859305</v>
+      </c>
+      <c r="R32">
+        <v>5800.621916315583</v>
+      </c>
+      <c r="S32">
+        <v>0.01021864885269046</v>
+      </c>
+      <c r="T32">
+        <v>0.007073330461425357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H33">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J33">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>115.495743</v>
+      </c>
+      <c r="N33">
+        <v>346.487229</v>
+      </c>
+      <c r="O33">
+        <v>0.07707058947984194</v>
+      </c>
+      <c r="P33">
+        <v>0.07983306994376788</v>
+      </c>
+      <c r="Q33">
+        <v>3245.025719715109</v>
+      </c>
+      <c r="R33">
+        <v>29205.23147743598</v>
+      </c>
+      <c r="S33">
+        <v>0.03429954114518136</v>
+      </c>
+      <c r="T33">
+        <v>0.03561312156223762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H34">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J34">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>366.2779236666667</v>
+      </c>
+      <c r="N34">
+        <v>1098.833771</v>
+      </c>
+      <c r="O34">
+        <v>0.2444181469999509</v>
+      </c>
+      <c r="P34">
+        <v>0.253178951357013</v>
+      </c>
+      <c r="Q34">
+        <v>10291.12633928145</v>
+      </c>
+      <c r="R34">
+        <v>92620.13705353301</v>
+      </c>
+      <c r="S34">
+        <v>0.1087759980329009</v>
+      </c>
+      <c r="T34">
+        <v>0.1129418269650423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H35">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J35">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>121.157162</v>
+      </c>
+      <c r="N35">
+        <v>242.314324</v>
+      </c>
+      <c r="O35">
+        <v>0.08084846811232432</v>
+      </c>
+      <c r="P35">
+        <v>0.05583090733848903</v>
+      </c>
+      <c r="Q35">
+        <v>3404.091757890072</v>
+      </c>
+      <c r="R35">
+        <v>20424.55054734043</v>
+      </c>
+      <c r="S35">
+        <v>0.03598085050677931</v>
+      </c>
+      <c r="T35">
+        <v>0.02490588037483896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.07003733333334</v>
-      </c>
-      <c r="H31">
-        <v>84.21011200000001</v>
-      </c>
-      <c r="I31">
-        <v>0.499559396435762</v>
-      </c>
-      <c r="J31">
-        <v>0.5023581450998098</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>151.102183</v>
-      </c>
-      <c r="N31">
-        <v>453.306549</v>
-      </c>
-      <c r="O31">
-        <v>0.2388832034840335</v>
-      </c>
-      <c r="P31">
-        <v>0.2532874216646838</v>
-      </c>
-      <c r="Q31">
-        <v>4241.443917958166</v>
-      </c>
-      <c r="R31">
-        <v>38172.99526162349</v>
-      </c>
-      <c r="S31">
-        <v>0.1193363489511251</v>
-      </c>
-      <c r="T31">
-        <v>0.1272409993245839</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H36">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J36">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>672.2915446666666</v>
+      </c>
+      <c r="N36">
+        <v>2016.874634</v>
+      </c>
+      <c r="O36">
+        <v>0.4486217786379665</v>
+      </c>
+      <c r="P36">
+        <v>0.4647019579585521</v>
+      </c>
+      <c r="Q36">
+        <v>18889.036919658</v>
+      </c>
+      <c r="R36">
+        <v>170001.332276922</v>
+      </c>
+      <c r="S36">
+        <v>0.1996549041452711</v>
+      </c>
+      <c r="T36">
+        <v>0.2073011513980953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H37">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J37">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N37">
+        <v>566.81881</v>
+      </c>
+      <c r="O37">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P37">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q37">
+        <v>5308.540872276454</v>
+      </c>
+      <c r="R37">
+        <v>47776.86785048808</v>
+      </c>
+      <c r="S37">
+        <v>0.05611065421247528</v>
+      </c>
+      <c r="T37">
+        <v>0.05825954175151682</v>
       </c>
     </row>
   </sheetData>
